--- a/testcaseV2.xlsx
+++ b/testcaseV2.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowHeight="15040"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+  <si>
+    <t>No.</t>
+  </si>
   <si>
     <t>Dataset</t>
   </si>
@@ -232,14 +235,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,24 +255,361 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -288,63 +633,340 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -355,10 +977,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -396,71 +1018,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -488,7 +1110,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -511,11 +1133,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -524,13 +1146,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -540,7 +1162,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -549,7 +1171,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -558,7 +1180,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -566,10 +1188,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -629,747 +1251,412 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BQ6"/>
+  <dimension ref="A1:BR6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" style="9" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="12" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="12" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="50" max="50" style="12" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="51" max="51" style="12" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="52" max="52" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="53" max="53" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="54" max="54" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="55" max="55" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="56" max="56" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="57" max="57" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="58" max="58" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="59" max="59" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="60" max="60" style="12" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="61" max="61" style="12" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="62" max="62" style="12" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="63" max="63" style="12" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="64" max="64" style="12" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="65" max="65" style="12" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="66" max="66" style="12" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="67" max="67" style="12" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="68" max="68" style="12" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="69" max="69" style="12" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="14.2890625" style="2" customWidth="1"/>
+    <col min="3" max="8" width="13.0078125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.0078125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.4296875" style="3" customWidth="1"/>
+    <col min="11" max="48" width="14.0078125" style="5" customWidth="1"/>
+    <col min="49" max="52" width="18.0078125" style="5" customWidth="1"/>
+    <col min="53" max="61" width="14.0078125" style="5" customWidth="1"/>
+    <col min="62" max="64" width="16.859375" style="5" customWidth="1"/>
+    <col min="65" max="65" width="15.4296875" style="5" customWidth="1"/>
+    <col min="66" max="66" width="16.1484375" style="5" customWidth="1"/>
+    <col min="67" max="67" width="17.1484375" style="5" customWidth="1"/>
+    <col min="68" max="68" width="18.71875" style="5" customWidth="1"/>
+    <col min="69" max="69" width="15.1484375" style="5" customWidth="1"/>
+    <col min="70" max="70" width="16.2890625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="59.25" customFormat="1" s="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="59.25" customHeight="1" spans="1:70">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BL1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BN1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BO1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BP1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="BR1" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="6">
+    <row r="2" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="9">
         <v>10</v>
       </c>
-      <c r="C2" s="6">
+      <c r="D2" s="9">
         <v>10</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E2" s="9">
         <v>20</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="9">
         <v>10</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="9">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="9">
         <v>1</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="11">
         <v>0.5</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="9">
         <v>10</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8"/>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="8"/>
-      <c r="BI2" s="8"/>
-      <c r="BJ2" s="8"/>
-      <c r="BK2" s="8"/>
-      <c r="BL2" s="8"/>
-      <c r="BM2" s="8"/>
-      <c r="BN2" s="8"/>
-      <c r="BO2" s="8"/>
-      <c r="BP2" s="8"/>
-      <c r="BQ2" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="3" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="9">
         <v>20</v>
       </c>
-      <c r="C3" s="6">
+      <c r="D3" s="9">
         <v>10</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="9">
         <v>30</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="9">
         <v>10</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="9">
         <v>1</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="9">
         <v>1</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I3" s="11">
         <v>0.5</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="9">
         <v>10</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8"/>
-      <c r="BB3" s="8"/>
-      <c r="BC3" s="8"/>
-      <c r="BD3" s="8"/>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8"/>
-      <c r="BH3" s="8"/>
-      <c r="BI3" s="8"/>
-      <c r="BJ3" s="8"/>
-      <c r="BK3" s="8"/>
-      <c r="BL3" s="8"/>
-      <c r="BM3" s="8"/>
-      <c r="BN3" s="8"/>
-      <c r="BO3" s="8"/>
-      <c r="BP3" s="8"/>
-      <c r="BQ3" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="6">
+    <row r="4" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="9">
         <v>30</v>
       </c>
-      <c r="C4" s="6">
+      <c r="D4" s="9">
         <v>10</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="9">
         <v>40</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="9">
         <v>10</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="7">
+      <c r="I4" s="11">
         <v>0.5</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="9">
         <v>10</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="8"/>
-      <c r="BH4" s="8"/>
-      <c r="BI4" s="8"/>
-      <c r="BJ4" s="8"/>
-      <c r="BK4" s="8"/>
-      <c r="BL4" s="8"/>
-      <c r="BM4" s="8"/>
-      <c r="BN4" s="8"/>
-      <c r="BO4" s="8"/>
-      <c r="BP4" s="8"/>
-      <c r="BQ4" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="6">
+    <row r="5" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="9">
         <v>20</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D5" s="9">
         <v>10</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="9">
         <v>20</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="9">
         <v>100</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="9">
         <v>1</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="9">
         <v>1</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="11">
         <v>0.5</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="9">
         <v>10</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8"/>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="8"/>
-      <c r="BG5" s="8"/>
-      <c r="BH5" s="8"/>
-      <c r="BI5" s="8"/>
-      <c r="BJ5" s="8"/>
-      <c r="BK5" s="8"/>
-      <c r="BL5" s="8"/>
-      <c r="BM5" s="8"/>
-      <c r="BN5" s="8"/>
-      <c r="BO5" s="8"/>
-      <c r="BP5" s="8"/>
-      <c r="BQ5" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="6">
+    <row r="6" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="9">
         <v>30</v>
       </c>
-      <c r="C6" s="6">
+      <c r="D6" s="9">
         <v>10</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="9">
         <v>30</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="9">
         <v>100</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="9">
         <v>1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="9">
         <v>1</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="11">
         <v>0.5</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="9">
         <v>10</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-      <c r="AZ6" s="8"/>
-      <c r="BA6" s="8"/>
-      <c r="BB6" s="8"/>
-      <c r="BC6" s="8"/>
-      <c r="BD6" s="8"/>
-      <c r="BE6" s="8"/>
-      <c r="BF6" s="8"/>
-      <c r="BG6" s="8"/>
-      <c r="BH6" s="8"/>
-      <c r="BI6" s="8"/>
-      <c r="BJ6" s="8"/>
-      <c r="BK6" s="8"/>
-      <c r="BL6" s="8"/>
-      <c r="BM6" s="8"/>
-      <c r="BN6" s="8"/>
-      <c r="BO6" s="8"/>
-      <c r="BP6" s="8"/>
-      <c r="BQ6" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>